--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msswn/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC745EB-82BD-5241-A2E9-D55BF25A2556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA6C2C-D77A-A94A-AD61-8D1BF1A7CCF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{CDE43BA4-E9B1-4E46-A885-61D95D39EE60}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{CDE43BA4-E9B1-4E46-A885-61D95D39EE60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Know lambdas?</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Other parameters/choices to add</t>
+  </si>
+  <si>
+    <t>Just find A, then control</t>
   </si>
 </sst>
 </file>
@@ -270,27 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -308,56 +291,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -671,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02223978-616E-EA43-9998-08827BF55A7A}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -726,18 +659,20 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -747,191 +682,203 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="K6" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8"/>
@@ -946,10 +893,32 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="J11" s="2"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="J12" s="2"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="J13" s="2"/>
@@ -981,13 +950,19 @@
     <row r="22" spans="10:10">
       <c r="J22" s="2"/>
     </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J25 K5">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="K6 B2:J27">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>EXACT("x",B2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>EXACT("o",B2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>EXACT("x",B2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
